--- a/results/comparaison/WM/azimuth/median_normalized.xlsx
+++ b/results/comparaison/WM/azimuth/median_normalized.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CS7"/>
+  <dimension ref="A1:CW7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:97">
+    <row r="1" spans="1:101">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -661,8 +661,20 @@
       <c r="CS1" s="1">
         <v>95</v>
       </c>
+      <c r="CT1" s="1">
+        <v>96</v>
+      </c>
+      <c r="CU1" s="1">
+        <v>97</v>
+      </c>
+      <c r="CV1" s="1">
+        <v>98</v>
+      </c>
+      <c r="CW1" s="1">
+        <v>99</v>
+      </c>
     </row>
-    <row r="2" spans="1:97">
+    <row r="2" spans="1:101">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -954,47 +966,92 @@
       <c r="CS2">
         <v>1</v>
       </c>
+      <c r="CT2">
+        <v>1</v>
+      </c>
+      <c r="CU2">
+        <v>1</v>
+      </c>
+      <c r="CV2">
+        <v>1</v>
+      </c>
+      <c r="CW2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:97">
+    <row r="3" spans="1:101">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
         <v>1.050950946109932</v>
       </c>
+      <c r="C3">
+        <v>0.863724975621209</v>
+      </c>
+      <c r="D3">
+        <v>2.181560311013251</v>
+      </c>
       <c r="E3">
+        <v>1.003478160293441</v>
+      </c>
+      <c r="F3">
         <v>0.6683517428408777</v>
       </c>
-      <c r="F3">
+      <c r="G3">
+        <v>0.9930398953742524</v>
+      </c>
+      <c r="H3">
         <v>0.9704827380557757</v>
       </c>
-      <c r="H3">
+      <c r="I3">
+        <v>1.318990281638387</v>
+      </c>
+      <c r="J3">
         <v>0.6215081026533846</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <v>0.7303970642322092</v>
       </c>
-      <c r="K3">
-        <v>4.686865917802577</v>
+      <c r="L3">
+        <v>1.178330123622448</v>
       </c>
       <c r="M3">
         <v>0.1101404374898355</v>
       </c>
       <c r="N3">
+        <v>4.686865917802577</v>
+      </c>
+      <c r="O3">
+        <v>1.098539833370353</v>
+      </c>
+      <c r="P3">
         <v>0.7870057077057628</v>
       </c>
-      <c r="O3">
+      <c r="Q3">
         <v>7.39350594160507</v>
       </c>
-      <c r="P3">
+      <c r="R3">
         <v>0.7074314016385473</v>
       </c>
       <c r="S3">
-        <v>5.700124226648023</v>
+        <v>2.810615592194905</v>
+      </c>
+      <c r="T3">
+        <v>0.9662948768316513</v>
+      </c>
+      <c r="U3">
+        <v>0.7217046886140805</v>
+      </c>
+      <c r="V3">
+        <v>0.8354290339258245</v>
       </c>
       <c r="W3">
         <v>0.8460214133853989</v>
       </c>
+      <c r="X3">
+        <v>0.6770111969094768</v>
+      </c>
       <c r="Y3">
         <v>0.8223888348014883</v>
       </c>
@@ -1002,350 +1059,842 @@
         <v>0.9586534150780673</v>
       </c>
       <c r="AA3">
-        <v>0.6673295188665876</v>
+        <v>6.333107419957003</v>
       </c>
       <c r="AB3">
-        <v>0.9226305397896021</v>
+        <v>1.102025212323064</v>
+      </c>
+      <c r="AC3">
+        <v>0.8986646472543253</v>
+      </c>
+      <c r="AD3">
+        <v>0.48712516986419</v>
+      </c>
+      <c r="AF3">
+        <v>0.990363658393829</v>
+      </c>
+      <c r="AG3">
+        <v>1.046864586672263</v>
+      </c>
+      <c r="AH3">
+        <v>1.375877868851054</v>
+      </c>
+      <c r="AI3">
+        <v>0.8958324138801388</v>
+      </c>
+      <c r="AJ3">
+        <v>0.9702254003593491</v>
+      </c>
+      <c r="AL3">
+        <v>0.988603855983298</v>
+      </c>
+      <c r="AM3">
+        <v>0.9470946280626072</v>
+      </c>
+      <c r="AN3">
+        <v>1.073118103434053</v>
+      </c>
+      <c r="AO3">
+        <v>0.9838433258159024</v>
+      </c>
+      <c r="AP3">
+        <v>0.6459234458441676</v>
       </c>
       <c r="AQ3">
-        <v>0.9852833635394654</v>
+        <v>0.9885667860104699</v>
       </c>
       <c r="AR3">
-        <v>0.8822718338345084</v>
+        <v>1.114609480640995</v>
       </c>
       <c r="AS3">
-        <v>0.969552309015785</v>
+        <v>1.174613331820538</v>
       </c>
       <c r="AT3">
-        <v>0.48712516986419</v>
+        <v>1.096785788857681</v>
       </c>
       <c r="AU3">
-        <v>0.990363658393829</v>
+        <v>1.981751361688854</v>
+      </c>
+      <c r="AV3">
+        <v>1.035832606050588</v>
       </c>
       <c r="AX3">
-        <v>0.8958324138801388</v>
+        <v>0.9646979695693146</v>
+      </c>
+      <c r="AY3">
+        <v>0.9857774590799332</v>
+      </c>
+      <c r="AZ3">
+        <v>0.9832012951101695</v>
+      </c>
+      <c r="BA3">
+        <v>1.045368396936684</v>
       </c>
       <c r="BB3">
-        <v>0.9494708565904035</v>
+        <v>0.895396895846051</v>
       </c>
       <c r="BC3">
-        <v>1.061737390788914</v>
+        <v>1.010689001649696</v>
+      </c>
+      <c r="BD3">
+        <v>0.957317689765385</v>
+      </c>
+      <c r="BE3">
+        <v>1.101406094728033</v>
       </c>
       <c r="BF3">
-        <v>0.7943595009352969</v>
+        <v>0.8528084275538952</v>
+      </c>
+      <c r="BG3">
+        <v>0.9939545475326766</v>
+      </c>
+      <c r="BH3">
+        <v>0.7100909800026974</v>
       </c>
       <c r="BI3">
-        <v>0.8796550123209769</v>
+        <v>1.04835683468288</v>
       </c>
       <c r="BJ3">
-        <v>0.9404962297069395</v>
+        <v>0.9574367365887717</v>
       </c>
       <c r="BK3">
-        <v>0.7905886725243323</v>
+        <v>0.8966995152629963</v>
+      </c>
+      <c r="BM3">
+        <v>0.9604601394267254</v>
+      </c>
+      <c r="BN3">
+        <v>1.013723562181991</v>
       </c>
       <c r="BO3">
-        <v>0.8713693302156333</v>
+        <v>0.8954854943819677</v>
       </c>
       <c r="BP3">
-        <v>1.026481487095814</v>
+        <v>3.921544558544614</v>
       </c>
       <c r="BQ3">
-        <v>0.6887347498627983</v>
+        <v>1.078922317764084</v>
       </c>
       <c r="BR3">
-        <v>0.9695364715688434</v>
+        <v>1.002917018153167</v>
       </c>
       <c r="BS3">
-        <v>0.9736860961689716</v>
+        <v>1.700943829915451</v>
+      </c>
+      <c r="BT3">
+        <v>0.9617093914985038</v>
       </c>
       <c r="BU3">
-        <v>3.038803245897328</v>
+        <v>1.024081488077295</v>
       </c>
       <c r="BV3">
-        <v>0.9542733757247529</v>
+        <v>1.043878922811082</v>
+      </c>
+      <c r="BW3">
+        <v>2.457066024218858</v>
+      </c>
+      <c r="BX3">
+        <v>0.9712397671205599</v>
+      </c>
+      <c r="BY3">
+        <v>0.9774547278514567</v>
+      </c>
+      <c r="BZ3">
+        <v>1.69025091094644</v>
+      </c>
+      <c r="CA3">
+        <v>0.944754339030121</v>
+      </c>
+      <c r="CB3">
+        <v>1.085231167804112</v>
+      </c>
+      <c r="CC3">
+        <v>0.9886821783233721</v>
+      </c>
+      <c r="CD3">
+        <v>0.9390799218765173</v>
+      </c>
+      <c r="CE3">
+        <v>0.8925198791845375</v>
+      </c>
+      <c r="CF3">
+        <v>0.08176753986810978</v>
       </c>
       <c r="CG3">
-        <v>1.012767919340046</v>
+        <v>0.8718627613766224</v>
+      </c>
+      <c r="CH3">
+        <v>1.616318893365276</v>
+      </c>
+      <c r="CI3">
+        <v>0.9968491378349498</v>
       </c>
       <c r="CK3">
-        <v>0.9288034478018733</v>
+        <v>1.220967488172761</v>
+      </c>
+      <c r="CL3">
+        <v>1.344342231339741</v>
+      </c>
+      <c r="CM3">
+        <v>0.7041933101215831</v>
       </c>
       <c r="CN3">
-        <v>1.422235401605846</v>
+        <v>0.6760877712667177</v>
+      </c>
+      <c r="CO3">
+        <v>0.9440294164632407</v>
+      </c>
+      <c r="CP3">
+        <v>12.25886857564308</v>
+      </c>
+      <c r="CQ3">
+        <v>0.9042377077188102</v>
+      </c>
+      <c r="CR3">
+        <v>3.651921377478111</v>
+      </c>
+      <c r="CS3">
+        <v>1.088982947422984</v>
+      </c>
+      <c r="CT3">
+        <v>1.207338525913311</v>
+      </c>
+      <c r="CU3">
+        <v>1.413973964439978</v>
+      </c>
+      <c r="CV3">
+        <v>0.9886640022300257</v>
       </c>
     </row>
-    <row r="4" spans="1:97">
+    <row r="4" spans="1:101">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
         <v>1.193579696567124</v>
       </c>
+      <c r="C4">
+        <v>0.9777797731138083</v>
+      </c>
+      <c r="D4">
+        <v>1.930119759580705</v>
+      </c>
       <c r="E4">
+        <v>0.8994486400963518</v>
+      </c>
+      <c r="F4">
         <v>0.3352559833741671</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>0.940539161380996</v>
       </c>
-      <c r="H4">
+      <c r="I4">
+        <v>1.240926211874225</v>
+      </c>
+      <c r="J4">
         <v>0.8102564439055396</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>0.6860435301490202</v>
       </c>
-      <c r="K4">
-        <v>4.111558195175104</v>
+      <c r="L4">
+        <v>1.199586309308624</v>
       </c>
       <c r="M4">
         <v>0.1354872000309589</v>
       </c>
       <c r="N4">
+        <v>4.111558195175104</v>
+      </c>
+      <c r="O4">
+        <v>1.141528655102891</v>
+      </c>
+      <c r="P4">
         <v>0.9418787765029579</v>
       </c>
-      <c r="O4">
+      <c r="Q4">
         <v>6.94232375242302</v>
       </c>
-      <c r="P4">
+      <c r="R4">
         <v>0.7090457276410254</v>
       </c>
       <c r="S4">
-        <v>5.132822137305695</v>
+        <v>0.9599422748658629</v>
+      </c>
+      <c r="T4">
+        <v>1.38433008654552</v>
+      </c>
+      <c r="U4">
+        <v>0.7973901184444131</v>
+      </c>
+      <c r="V4">
+        <v>0.9096135852556156</v>
       </c>
       <c r="W4">
         <v>0.9630114638550259</v>
       </c>
+      <c r="X4">
+        <v>0.7687314463384272</v>
+      </c>
       <c r="Y4">
         <v>1.06408816737796</v>
       </c>
       <c r="Z4">
         <v>1.075219182721232</v>
       </c>
+      <c r="AA4">
+        <v>6.305217222500888</v>
+      </c>
       <c r="AB4">
-        <v>0.985076579027871</v>
+        <v>1.217181600586058</v>
+      </c>
+      <c r="AC4">
+        <v>0.9868452197632319</v>
+      </c>
+      <c r="AD4">
+        <v>1.477888570107999</v>
+      </c>
+      <c r="AF4">
+        <v>1.54893895836654</v>
+      </c>
+      <c r="AG4">
+        <v>1.075948915721441</v>
       </c>
       <c r="AH4">
+        <v>5.742759975187591</v>
+      </c>
+      <c r="AI4">
+        <v>1.140452515334794</v>
+      </c>
+      <c r="AJ4">
+        <v>1.162558529998563</v>
+      </c>
+      <c r="AL4">
+        <v>1.009269381646478</v>
+      </c>
+      <c r="AM4">
+        <v>1.02500590951014</v>
+      </c>
+      <c r="AN4">
         <v>1.130906723832472</v>
       </c>
-      <c r="AJ4">
+      <c r="AO4">
         <v>1.093216714406029</v>
       </c>
-      <c r="AK4">
+      <c r="AP4">
+        <v>4.308358327743908</v>
+      </c>
+      <c r="AQ4">
+        <v>1.046727780205641</v>
+      </c>
+      <c r="AR4">
         <v>1.331609336754342</v>
       </c>
-      <c r="AM4">
-        <v>1.147281260786234</v>
-      </c>
-      <c r="AQ4">
-        <v>1.06697261423302</v>
-      </c>
-      <c r="AR4">
-        <v>0.8893362947236337</v>
-      </c>
-      <c r="AS4">
-        <v>1.010490007158666</v>
-      </c>
       <c r="AT4">
-        <v>1.477888570107999</v>
+        <v>1.248002904994423</v>
       </c>
       <c r="AU4">
-        <v>1.54893895836654</v>
-      </c>
-      <c r="AX4">
-        <v>1.140452515334794</v>
+        <v>2.798931561786797</v>
+      </c>
+      <c r="AV4">
+        <v>1.100301221888083</v>
+      </c>
+      <c r="AZ4">
+        <v>0.9368621217181589</v>
+      </c>
+      <c r="BA4">
+        <v>1.018564133860212</v>
       </c>
       <c r="BB4">
-        <v>0.9519375128966774</v>
+        <v>0.740789176744268</v>
       </c>
       <c r="BC4">
-        <v>1.049195057500555</v>
+        <v>0.9603389952257372</v>
+      </c>
+      <c r="BD4">
+        <v>0.9329335839086025</v>
+      </c>
+      <c r="BE4">
+        <v>1.082698583299792</v>
+      </c>
+      <c r="BF4">
+        <v>0.8116873326027777</v>
+      </c>
+      <c r="BG4">
+        <v>0.9249683807549861</v>
+      </c>
+      <c r="BH4">
+        <v>0.7589096667313843</v>
       </c>
       <c r="BI4">
-        <v>0.709609956753146</v>
+        <v>1.011636617368456</v>
       </c>
       <c r="BJ4">
-        <v>0.8994921572248269</v>
+        <v>0.9268239634001459</v>
       </c>
       <c r="BK4">
-        <v>0.6576760357462916</v>
+        <v>0.8805604941513494</v>
+      </c>
+      <c r="BL4">
+        <v>0.8619253185357973</v>
+      </c>
+      <c r="BM4">
+        <v>0.9107323290646551</v>
+      </c>
+      <c r="BN4">
+        <v>0.9617801622997847</v>
+      </c>
+      <c r="BO4">
+        <v>0.853427089942309</v>
       </c>
       <c r="BP4">
-        <v>0.9800771539194731</v>
-      </c>
-      <c r="BS4">
-        <v>0.9181336814238408</v>
+        <v>3.669129796955135</v>
+      </c>
+      <c r="BQ4">
+        <v>1.055258172113072</v>
+      </c>
+      <c r="BR4">
+        <v>0.9467188930369554</v>
+      </c>
+      <c r="BT4">
+        <v>0.9444906358996706</v>
       </c>
       <c r="BU4">
-        <v>2.813925615192194</v>
+        <v>1.046614046220176</v>
       </c>
       <c r="BV4">
-        <v>0.9084508706133422</v>
+        <v>1.00448515733788</v>
+      </c>
+      <c r="BW4">
+        <v>1.986100180378838</v>
+      </c>
+      <c r="BX4">
+        <v>0.9257763881124622</v>
+      </c>
+      <c r="BY4">
+        <v>0.9113246838438894</v>
+      </c>
+      <c r="BZ4">
+        <v>1.45688983683476</v>
+      </c>
+      <c r="CA4">
+        <v>0.9230708928087229</v>
+      </c>
+      <c r="CB4">
+        <v>1.086037914202689</v>
+      </c>
+      <c r="CC4">
+        <v>1.017762523206514</v>
+      </c>
+      <c r="CD4">
+        <v>0.8167936040115822</v>
+      </c>
+      <c r="CE4">
+        <v>0.7907749828591945</v>
       </c>
       <c r="CF4">
-        <v>0.9783478282272673</v>
+        <v>0.1144901900982172</v>
+      </c>
+      <c r="CG4">
+        <v>0.8735936782687312</v>
       </c>
       <c r="CH4">
-        <v>0.9108089459196849</v>
+        <v>1.566200111004044</v>
+      </c>
+      <c r="CI4">
+        <v>0.9833357412395124</v>
       </c>
       <c r="CK4">
-        <v>0.8705658519320395</v>
+        <v>1.153173353310153</v>
+      </c>
+      <c r="CL4">
+        <v>1.222629882113024</v>
+      </c>
+      <c r="CM4">
+        <v>0.6845246347085966</v>
       </c>
       <c r="CN4">
-        <v>1.503861600680137</v>
+        <v>0.5151876675157838</v>
+      </c>
+      <c r="CO4">
+        <v>0.728075724127763</v>
+      </c>
+      <c r="CP4">
+        <v>12.09899727223071</v>
+      </c>
+      <c r="CQ4">
+        <v>1.089271679179637</v>
+      </c>
+      <c r="CR4">
+        <v>1.703129096364421</v>
+      </c>
+      <c r="CS4">
+        <v>1.11959678825806</v>
+      </c>
+      <c r="CT4">
+        <v>0.8054651632270852</v>
+      </c>
+      <c r="CU4">
+        <v>0.3326858254811176</v>
+      </c>
+      <c r="CV4">
+        <v>0.9270780978832357</v>
+      </c>
+      <c r="CW4">
+        <v>1.058561326692065</v>
       </c>
     </row>
-    <row r="5" spans="1:97">
+    <row r="5" spans="1:101">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
         <v>1.457545866070624</v>
       </c>
+      <c r="C5">
+        <v>1.073610964875608</v>
+      </c>
       <c r="D5">
+        <v>2.204363427758445</v>
+      </c>
+      <c r="E5">
         <v>0.912242016389556</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0.3062678123345061</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <v>0.8976587787181467</v>
       </c>
-      <c r="H5">
+      <c r="I5">
+        <v>1.383865464624586</v>
+      </c>
+      <c r="J5">
         <v>0.7895946436179725</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>5.87683767976945</v>
       </c>
-      <c r="K5">
-        <v>2.754631887732558</v>
+      <c r="L5">
+        <v>1.275559531375776</v>
       </c>
       <c r="M5">
         <v>0.9140568955137194</v>
       </c>
       <c r="N5">
+        <v>2.754631887732558</v>
+      </c>
+      <c r="O5">
+        <v>1.19183427299842</v>
+      </c>
+      <c r="P5">
         <v>0.8373211107032885</v>
       </c>
-      <c r="O5">
+      <c r="Q5">
         <v>6.925412278880001</v>
       </c>
-      <c r="P5">
+      <c r="R5">
         <v>0.6610675541147636</v>
       </c>
       <c r="S5">
-        <v>6.096448354091045</v>
+        <v>2.564673520271501</v>
+      </c>
+      <c r="T5">
+        <v>0.943410974480837</v>
+      </c>
+      <c r="U5">
+        <v>0.8172817845750378</v>
+      </c>
+      <c r="V5">
+        <v>0.9685635532307962</v>
       </c>
       <c r="W5">
         <v>0.916566870844316</v>
       </c>
+      <c r="X5">
+        <v>0.6867665884047098</v>
+      </c>
       <c r="Y5">
         <v>0.9903887213862693</v>
       </c>
       <c r="Z5">
         <v>1.18504787018819</v>
       </c>
+      <c r="AA5">
+        <v>6.639200899285275</v>
+      </c>
       <c r="AB5">
-        <v>0.9707470827748058</v>
+        <v>1.001324223534313</v>
+      </c>
+      <c r="AC5">
+        <v>0.9749075743611862</v>
+      </c>
+      <c r="AD5">
+        <v>0.3554337219962255</v>
+      </c>
+      <c r="AF5">
+        <v>0.9629692699374746</v>
+      </c>
+      <c r="AG5">
+        <v>1.107916841432795</v>
+      </c>
+      <c r="AH5">
+        <v>0.9307888104052541</v>
+      </c>
+      <c r="AI5">
+        <v>0.9127457509303823</v>
+      </c>
+      <c r="AJ5">
+        <v>0.995145990845263</v>
+      </c>
+      <c r="AL5">
+        <v>1.03869164381818</v>
+      </c>
+      <c r="AM5">
+        <v>1.027900526937809</v>
+      </c>
+      <c r="AN5">
+        <v>1.115351490249448</v>
+      </c>
+      <c r="AO5">
+        <v>1.084431711291333</v>
+      </c>
+      <c r="AP5">
+        <v>0.5465713257709767</v>
       </c>
       <c r="AQ5">
-        <v>1.010025407183381</v>
+        <v>1.022403376375956</v>
       </c>
       <c r="AR5">
-        <v>0.9609033223053338</v>
+        <v>1.090111354751803</v>
       </c>
       <c r="AS5">
-        <v>0.9820895274894598</v>
+        <v>1.303134398609811</v>
       </c>
       <c r="AT5">
-        <v>0.3554337219962255</v>
+        <v>1.185286210497703</v>
       </c>
       <c r="AU5">
-        <v>0.9629692699374746</v>
-      </c>
-      <c r="AX5">
-        <v>0.9127457509303823</v>
+        <v>1.355799942655657</v>
+      </c>
+      <c r="AV5">
+        <v>1.019184892206822</v>
+      </c>
+      <c r="AY5">
+        <v>1.008772985108422</v>
+      </c>
+      <c r="AZ5">
+        <v>0.9749113913974643</v>
+      </c>
+      <c r="BA5">
+        <v>1.052067415967112</v>
       </c>
       <c r="BB5">
-        <v>0.974693389321079</v>
+        <v>0.9866709839781055</v>
       </c>
       <c r="BC5">
-        <v>1.06209611962312</v>
+        <v>0.9922291194471144</v>
+      </c>
+      <c r="BD5">
+        <v>0.956916923574888</v>
       </c>
       <c r="BE5">
-        <v>0.8927003524032926</v>
+        <v>1.144953091642359</v>
+      </c>
+      <c r="BF5">
+        <v>0.9744630147458825</v>
+      </c>
+      <c r="BG5">
+        <v>0.9981996345846601</v>
+      </c>
+      <c r="BH5">
+        <v>0.9295987888502252</v>
       </c>
       <c r="BI5">
-        <v>0.9695107811917212</v>
+        <v>1.029239539196172</v>
+      </c>
+      <c r="BJ5">
+        <v>0.9666363201095942</v>
       </c>
       <c r="BK5">
-        <v>1.011919891702744</v>
+        <v>1.013745089053156</v>
+      </c>
+      <c r="BM5">
+        <v>0.9414205872881249</v>
+      </c>
+      <c r="BN5">
+        <v>1.045943815079438</v>
+      </c>
+      <c r="BO5">
+        <v>0.9718819369935633</v>
       </c>
       <c r="BP5">
-        <v>1.037735123990386</v>
-      </c>
-      <c r="BS5">
-        <v>0.9598985783138561</v>
+        <v>4.314701629784586</v>
+      </c>
+      <c r="BQ5">
+        <v>1.052481028275017</v>
+      </c>
+      <c r="BR5">
+        <v>0.9851641741047114</v>
+      </c>
+      <c r="BT5">
+        <v>0.9972892473446453</v>
       </c>
       <c r="BU5">
-        <v>2.252749710588182</v>
+        <v>1.053514627043781</v>
       </c>
       <c r="BV5">
-        <v>0.9452749145931395</v>
+        <v>1.024961939098909</v>
+      </c>
+      <c r="BW5">
+        <v>2.577839376713089</v>
+      </c>
+      <c r="BX5">
+        <v>0.9751968849360508</v>
+      </c>
+      <c r="BY5">
+        <v>0.9485925699747926</v>
       </c>
       <c r="BZ5">
-        <v>4.755718300174333</v>
+        <v>1.427692796771774</v>
+      </c>
+      <c r="CA5">
+        <v>0.9562566474191543</v>
+      </c>
+      <c r="CB5">
+        <v>0.8490861732373293</v>
       </c>
       <c r="CC5">
-        <v>0.9957587713787044</v>
+        <v>1.049956774761237</v>
+      </c>
+      <c r="CD5">
+        <v>0.7129800874801279</v>
+      </c>
+      <c r="CE5">
+        <v>0.7034656629681675</v>
+      </c>
+      <c r="CF5">
+        <v>0.07180002672210498</v>
+      </c>
+      <c r="CG5">
+        <v>0.7761422595505322</v>
       </c>
       <c r="CH5">
-        <v>0.9537054323684746</v>
+        <v>1.651004456604521</v>
+      </c>
+      <c r="CI5">
+        <v>0.9908413533554379</v>
       </c>
       <c r="CK5">
-        <v>0.9372546637426312</v>
+        <v>1.108570023179406</v>
+      </c>
+      <c r="CL5">
+        <v>1.208192524229034</v>
+      </c>
+      <c r="CM5">
+        <v>0.6923770239504554</v>
+      </c>
+      <c r="CN5">
+        <v>0.5193364756926102</v>
+      </c>
+      <c r="CO5">
+        <v>0.7745010224387735</v>
       </c>
       <c r="CP5">
-        <v>0.9708972322315779</v>
+        <v>12.45522636573963</v>
+      </c>
+      <c r="CQ5">
+        <v>0.7474455251108472</v>
+      </c>
+      <c r="CR5">
+        <v>3.734562544551628</v>
       </c>
       <c r="CS5">
-        <v>3.734562544551628</v>
+        <v>1.074109778552133</v>
+      </c>
+      <c r="CT5">
+        <v>0.9457549016830599</v>
+      </c>
+      <c r="CU5">
+        <v>1.410508902093766</v>
+      </c>
+      <c r="CV5">
+        <v>1.000526379431532</v>
+      </c>
+      <c r="CW5">
+        <v>1.118736678336198</v>
       </c>
     </row>
-    <row r="6" spans="1:97">
+    <row r="6" spans="1:101">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
         <v>1.953781015524394</v>
       </c>
+      <c r="C6">
+        <v>1.103384822088817</v>
+      </c>
+      <c r="D6">
+        <v>1.762903216196841</v>
+      </c>
       <c r="E6">
+        <v>0.9413235651180248</v>
+      </c>
+      <c r="F6">
         <v>0.2973815107338996</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <v>0.9255350527019727</v>
       </c>
-      <c r="H6">
+      <c r="I6">
+        <v>1.235961644528277</v>
+      </c>
+      <c r="J6">
         <v>0.9401428732169089</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <v>1.154994724407268</v>
       </c>
-      <c r="K6">
-        <v>1.721062652823694</v>
+      <c r="L6">
+        <v>1.260379436181256</v>
       </c>
       <c r="M6">
         <v>0.5007702392271344</v>
       </c>
       <c r="N6">
+        <v>1.721062652823694</v>
+      </c>
+      <c r="O6">
+        <v>1.215511409710305</v>
+      </c>
+      <c r="P6">
         <v>1.00452970180486</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
+        <v>6.612247916046116</v>
+      </c>
+      <c r="R6">
         <v>0.5366900743659909</v>
       </c>
       <c r="S6">
-        <v>4.028026063382888</v>
+        <v>2.240457705900841</v>
+      </c>
+      <c r="T6">
+        <v>1.392788408028008</v>
+      </c>
+      <c r="U6">
+        <v>0.8557070688472787</v>
+      </c>
+      <c r="V6">
+        <v>0.9972777291002084</v>
       </c>
       <c r="W6">
         <v>0.9189366406733965</v>
       </c>
+      <c r="X6">
+        <v>0.8408161756267748</v>
+      </c>
       <c r="Y6">
         <v>1.376600158333174</v>
       </c>
@@ -1353,204 +1902,513 @@
         <v>1.170303708290825</v>
       </c>
       <c r="AA6">
-        <v>3.811885203063684</v>
+        <v>6.267219111770411</v>
       </c>
       <c r="AB6">
-        <v>1.001455244183509</v>
+        <v>1.113019960883654</v>
+      </c>
+      <c r="AC6">
+        <v>0.915184605044107</v>
+      </c>
+      <c r="AD6">
+        <v>0.4020222023020257</v>
+      </c>
+      <c r="AF6">
+        <v>1.415837209409868</v>
+      </c>
+      <c r="AG6">
+        <v>1.025059061617568</v>
+      </c>
+      <c r="AH6">
+        <v>1.148466692350817</v>
+      </c>
+      <c r="AI6">
+        <v>0.9954761803889975</v>
+      </c>
+      <c r="AJ6">
+        <v>0.9926958761242167</v>
+      </c>
+      <c r="AK6">
+        <v>1.138156613119224</v>
+      </c>
+      <c r="AL6">
+        <v>1.003889195171944</v>
+      </c>
+      <c r="AM6">
+        <v>1.053207032950764</v>
+      </c>
+      <c r="AN6">
+        <v>1.076421302060504</v>
+      </c>
+      <c r="AO6">
+        <v>1.037294289378792</v>
+      </c>
+      <c r="AP6">
+        <v>4.467344773797172</v>
       </c>
       <c r="AQ6">
-        <v>1.029170256359051</v>
+        <v>1.098907004910788</v>
       </c>
       <c r="AR6">
-        <v>0.8773895329198601</v>
+        <v>1.151185258357178</v>
       </c>
       <c r="AS6">
-        <v>1.023464144968255</v>
+        <v>1.175859540093837</v>
       </c>
       <c r="AT6">
-        <v>0.4020222023020257</v>
+        <v>1.067543269200519</v>
       </c>
       <c r="AU6">
-        <v>1.415837209409868</v>
+        <v>1.320762252365827</v>
+      </c>
+      <c r="AV6">
+        <v>1.045213751075879</v>
+      </c>
+      <c r="AW6">
+        <v>1.134446771573995</v>
       </c>
       <c r="AX6">
-        <v>0.9954761803889975</v>
+        <v>0.9856617066457474</v>
+      </c>
+      <c r="AY6">
+        <v>0.9446226511212653</v>
       </c>
       <c r="AZ6">
-        <v>0.926482598743777</v>
+        <v>0.8726842607782106</v>
+      </c>
+      <c r="BA6">
+        <v>0.9911856499053656</v>
       </c>
       <c r="BB6">
-        <v>0.8977155070898017</v>
+        <v>0.7864628723061006</v>
+      </c>
+      <c r="BC6">
+        <v>0.8878735086680349</v>
+      </c>
+      <c r="BD6">
+        <v>0.8477536128323241</v>
       </c>
       <c r="BE6">
-        <v>0.7581193979342294</v>
+        <v>0.9825274511145549</v>
+      </c>
+      <c r="BF6">
+        <v>0.7540644377995693</v>
+      </c>
+      <c r="BG6">
+        <v>0.8701073671607326</v>
+      </c>
+      <c r="BH6">
+        <v>0.7109039550155036</v>
       </c>
       <c r="BI6">
-        <v>0.7702836712873039</v>
+        <v>0.9194455951682104</v>
       </c>
       <c r="BJ6">
-        <v>0.8264405310335181</v>
+        <v>0.8589826720075342</v>
       </c>
       <c r="BK6">
-        <v>0.7002701268628226</v>
+        <v>0.8600416084367386</v>
+      </c>
+      <c r="BL6">
+        <v>0.9091631468481897</v>
+      </c>
+      <c r="BM6">
+        <v>0.8451827410517142</v>
+      </c>
+      <c r="BN6">
+        <v>0.8688776976455163</v>
+      </c>
+      <c r="BO6">
+        <v>0.856570549275931</v>
       </c>
       <c r="BP6">
-        <v>0.934876565864693</v>
+        <v>3.591797581561402</v>
+      </c>
+      <c r="BQ6">
+        <v>0.9435163672936833</v>
       </c>
       <c r="BR6">
-        <v>0.8544636229694834</v>
+        <v>0.8784036683544815</v>
       </c>
       <c r="BS6">
-        <v>0.8633450184760599</v>
+        <v>1.046221763250056</v>
+      </c>
+      <c r="BT6">
+        <v>0.8825507665858138</v>
       </c>
       <c r="BU6">
-        <v>2.329648771856478</v>
+        <v>0.8698726286915734</v>
       </c>
       <c r="BV6">
-        <v>0.8911682113714301</v>
+        <v>0.9510699177143146</v>
+      </c>
+      <c r="BW6">
+        <v>1.989225185720702</v>
+      </c>
+      <c r="BX6">
+        <v>0.8542456695961149</v>
+      </c>
+      <c r="BY6">
+        <v>0.911689405417194</v>
       </c>
       <c r="BZ6">
-        <v>7.17310080950775</v>
+        <v>1.517634718096371</v>
       </c>
       <c r="CA6">
-        <v>1.435345116062796</v>
+        <v>0.8970368665940571</v>
+      </c>
+      <c r="CB6">
+        <v>1.05717825292131</v>
       </c>
       <c r="CC6">
-        <v>0.988479571902552</v>
+        <v>1.020776549644656</v>
+      </c>
+      <c r="CD6">
+        <v>0.3453625968808163</v>
+      </c>
+      <c r="CE6">
+        <v>0.78967801016939</v>
       </c>
       <c r="CF6">
-        <v>0.9686840162450286</v>
+        <v>0.07868364761396801</v>
       </c>
       <c r="CG6">
-        <v>0.9946510433991042</v>
+        <v>0.8385516068838959</v>
       </c>
       <c r="CH6">
-        <v>1.002265930719105</v>
+        <v>1.505538000843944</v>
+      </c>
+      <c r="CI6">
+        <v>0.9907148524796708</v>
       </c>
       <c r="CK6">
-        <v>0.822558871796935</v>
+        <v>0.8123501304642498</v>
+      </c>
+      <c r="CL6">
+        <v>1.029159630407404</v>
+      </c>
+      <c r="CM6">
+        <v>0.6315665834323996</v>
       </c>
       <c r="CN6">
-        <v>0.7819363885279844</v>
+        <v>0.6119521568076213</v>
+      </c>
+      <c r="CO6">
+        <v>0.8648211553701431</v>
       </c>
       <c r="CP6">
-        <v>0.9362841033782623</v>
+        <v>0.9511473177957414</v>
+      </c>
+      <c r="CQ6">
+        <v>0.6975174522828582</v>
       </c>
       <c r="CR6">
-        <v>1.667997718898121</v>
+        <v>3.679157542942506</v>
       </c>
       <c r="CS6">
-        <v>3.679157542942506</v>
+        <v>0.9626725077957707</v>
+      </c>
+      <c r="CT6">
+        <v>0.9095680422727501</v>
+      </c>
+      <c r="CU6">
+        <v>0.7522811485091027</v>
+      </c>
+      <c r="CV6">
+        <v>0.9780385843445023</v>
       </c>
     </row>
-    <row r="7" spans="1:97">
+    <row r="7" spans="1:101">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
         <v>3.277067461139654</v>
       </c>
+      <c r="C7">
+        <v>1.170730826234914</v>
+      </c>
+      <c r="D7">
+        <v>2.027372675916349</v>
+      </c>
       <c r="E7">
+        <v>0.9616789056020817</v>
+      </c>
+      <c r="F7">
         <v>0.9435026764448872</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <v>0.9076079223294008</v>
       </c>
-      <c r="H7">
+      <c r="I7">
+        <v>1.402337349972932</v>
+      </c>
+      <c r="J7">
         <v>0.6714155968647542</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <v>5.75643079154874</v>
       </c>
-      <c r="K7">
-        <v>4.525386151054008</v>
+      <c r="L7">
+        <v>1.132308061973978</v>
       </c>
       <c r="M7">
         <v>0.8966259159930209</v>
       </c>
       <c r="N7">
+        <v>4.525386151054008</v>
+      </c>
+      <c r="O7">
+        <v>1.065125890370294</v>
+      </c>
+      <c r="P7">
         <v>0.6864816581194895</v>
       </c>
-      <c r="O7">
+      <c r="Q7">
         <v>7.139983994487933</v>
       </c>
-      <c r="P7">
+      <c r="R7">
         <v>0.7695043054136296</v>
       </c>
       <c r="S7">
-        <v>5.989231989483363</v>
+        <v>2.875241418594084</v>
+      </c>
+      <c r="T7">
+        <v>2.909084990995044</v>
+      </c>
+      <c r="U7">
+        <v>0.8059044837982388</v>
+      </c>
+      <c r="V7">
+        <v>0.9613429998269509</v>
       </c>
       <c r="W7">
         <v>0.7944666755554023</v>
       </c>
+      <c r="X7">
+        <v>0.576015747670088</v>
+      </c>
       <c r="Y7">
         <v>0.9734944780734031</v>
       </c>
       <c r="Z7">
         <v>1.221248363659712</v>
       </c>
+      <c r="AA7">
+        <v>6.356806296086698</v>
+      </c>
       <c r="AB7">
-        <v>0.7412873743392802</v>
+        <v>0.8535344954786557</v>
+      </c>
+      <c r="AC7">
+        <v>0.890197364258121</v>
+      </c>
+      <c r="AD7">
+        <v>1.22746010526883</v>
+      </c>
+      <c r="AE7">
+        <v>0.1705554662637718</v>
+      </c>
+      <c r="AF7">
+        <v>1.640246043149171</v>
+      </c>
+      <c r="AG7">
+        <v>1.06402285870814</v>
+      </c>
+      <c r="AH7">
+        <v>4.172244684450694</v>
+      </c>
+      <c r="AI7">
+        <v>0.8175083159927995</v>
+      </c>
+      <c r="AJ7">
+        <v>0.8337945303897785</v>
       </c>
       <c r="AK7">
+        <v>1.161883731786303</v>
+      </c>
+      <c r="AL7">
+        <v>0.991279167027903</v>
+      </c>
+      <c r="AM7">
+        <v>0.9886578404304952</v>
+      </c>
+      <c r="AN7">
+        <v>1.046616338830515</v>
+      </c>
+      <c r="AO7">
+        <v>1.055712353989825</v>
+      </c>
+      <c r="AP7">
+        <v>4.372024890809078</v>
+      </c>
+      <c r="AQ7">
+        <v>1.002635292121385</v>
+      </c>
+      <c r="AR7">
         <v>0.7750668477150929</v>
       </c>
-      <c r="AQ7">
-        <v>0.8516698449069763</v>
-      </c>
-      <c r="AR7">
-        <v>0.6670924247548229</v>
-      </c>
       <c r="AS7">
-        <v>0.798926482816698</v>
+        <v>1.315449386942097</v>
       </c>
       <c r="AT7">
-        <v>1.22746010526883</v>
+        <v>1.028803462665109</v>
       </c>
       <c r="AU7">
-        <v>1.640246043149171</v>
+        <v>1.704122639707914</v>
+      </c>
+      <c r="AV7">
+        <v>0.8199718437699814</v>
+      </c>
+      <c r="AW7">
+        <v>1.094334987678714</v>
       </c>
       <c r="AX7">
-        <v>0.8175083159927995</v>
+        <v>0.9450818500346018</v>
+      </c>
+      <c r="AY7">
+        <v>0.9614657603478656</v>
+      </c>
+      <c r="AZ7">
+        <v>0.9811131451141244</v>
+      </c>
+      <c r="BA7">
+        <v>1.054035915656385</v>
       </c>
       <c r="BB7">
-        <v>0.862291325285768</v>
+        <v>0.7559474147543164</v>
       </c>
       <c r="BC7">
-        <v>1.023322130532974</v>
+        <v>0.9981730020441448</v>
+      </c>
+      <c r="BD7">
+        <v>0.9466499676378809</v>
+      </c>
+      <c r="BE7">
+        <v>1.155311431490293</v>
+      </c>
+      <c r="BF7">
+        <v>0.9250314429626063</v>
+      </c>
+      <c r="BG7">
+        <v>0.9584242379199871</v>
+      </c>
+      <c r="BH7">
+        <v>0.8554202736946049</v>
       </c>
       <c r="BI7">
-        <v>0.8842646894344058</v>
+        <v>1.058899146458445</v>
       </c>
       <c r="BJ7">
-        <v>0.8960074290320128</v>
+        <v>0.9554655003489764</v>
       </c>
       <c r="BK7">
-        <v>0.7030001461394569</v>
+        <v>0.9618667260173083</v>
+      </c>
+      <c r="BL7">
+        <v>0.9448697499222536</v>
+      </c>
+      <c r="BM7">
+        <v>0.9250533037917524</v>
+      </c>
+      <c r="BN7">
+        <v>1.038388383914492</v>
+      </c>
+      <c r="BO7">
+        <v>0.9082049449431054</v>
       </c>
       <c r="BP7">
-        <v>1.036557123734553</v>
+        <v>3.875002044648642</v>
+      </c>
+      <c r="BQ7">
+        <v>1.038616779107727</v>
       </c>
       <c r="BR7">
-        <v>0.9558488332663749</v>
-      </c>
-      <c r="BS7">
-        <v>0.9305389139924697</v>
+        <v>0.9348620604507051</v>
+      </c>
+      <c r="BT7">
+        <v>0.9802069785832932</v>
       </c>
       <c r="BU7">
-        <v>2.765178093595208</v>
+        <v>1.020419018729675</v>
       </c>
       <c r="BV7">
-        <v>0.9412781046132115</v>
+        <v>1.027185204758128</v>
+      </c>
+      <c r="BW7">
+        <v>1.986434164803688</v>
+      </c>
+      <c r="BX7">
+        <v>0.9614573107988209</v>
+      </c>
+      <c r="BY7">
+        <v>0.715122910571844</v>
+      </c>
+      <c r="BZ7">
+        <v>1.727604892737601</v>
+      </c>
+      <c r="CA7">
+        <v>0.9424093940969361</v>
+      </c>
+      <c r="CB7">
+        <v>0.9881895998002762</v>
+      </c>
+      <c r="CC7">
+        <v>1.293568531910569</v>
+      </c>
+      <c r="CD7">
+        <v>0.3480640791238132</v>
+      </c>
+      <c r="CE7">
+        <v>0.8062876397755186</v>
       </c>
       <c r="CF7">
-        <v>0.9391139477599308</v>
+        <v>0.08746647423669787</v>
       </c>
       <c r="CG7">
-        <v>1.003601776957826</v>
+        <v>0.8705692449641562</v>
       </c>
       <c r="CH7">
-        <v>0.9693366911336966</v>
+        <v>1.640439531000469</v>
+      </c>
+      <c r="CI7">
+        <v>0.996771014655625</v>
+      </c>
+      <c r="CK7">
+        <v>0.9872888605627619</v>
+      </c>
+      <c r="CL7">
+        <v>1.381628803751127</v>
+      </c>
+      <c r="CM7">
+        <v>0.8064153826348548</v>
+      </c>
+      <c r="CN7">
+        <v>0.553781350376631</v>
+      </c>
+      <c r="CO7">
+        <v>0.849396143454665</v>
+      </c>
+      <c r="CP7">
+        <v>1.167157544027856</v>
+      </c>
+      <c r="CQ7">
+        <v>0.8334241113853827</v>
+      </c>
+      <c r="CR7">
+        <v>2.827070758065981</v>
+      </c>
+      <c r="CS7">
+        <v>1.220079632079638</v>
+      </c>
+      <c r="CT7">
+        <v>1.019812222242742</v>
+      </c>
+      <c r="CU7">
+        <v>1.006425140066717</v>
+      </c>
+      <c r="CV7">
+        <v>0.963580179823517</v>
       </c>
     </row>
   </sheetData>
